--- a/TestData/InputData.xlsx
+++ b/TestData/InputData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Success" sheetId="1" r:id="rId1"/>
-    <sheet name="Login_Failure" sheetId="2" r:id="rId2"/>
+    <sheet name="Product_Search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
@@ -31,10 +31,16 @@
     <t>Expected Keys</t>
   </si>
   <si>
-    <t>rohitk3789@gmail.com</t>
-  </si>
-  <si>
-    <t>Stunner@629</t>
+    <t>rohitk11134@gmail.com</t>
+  </si>
+  <si>
+    <t>Welcome@123</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>65-inch TV</t>
   </si>
 </sst>
 </file>
@@ -393,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -435,14 +441,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>